--- a/1_orig_data/WB_regions.xlsx
+++ b/1_orig_data/WB_regions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakirsch/Documents/Georgetown 2.1/Thesis/git/nak-thesis/1_orig_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81188D1-16FE-5746-9F1A-F28B96609AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754FC53E-F0A2-5F48-9FB8-3EA41F146B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="500" windowWidth="25040" windowHeight="14060" xr2:uid="{02F989B7-E234-8648-B3B1-BC6C280D05CE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="70">
   <si>
     <t>country</t>
   </si>
@@ -230,76 +230,29 @@
     <t>LATIN AMERICA AND THE CARIBBEAN</t>
   </si>
   <si>
-    <t>EAST ASIA AND PACIFIC  </t>
-  </si>
-  <si>
-    <r>
-      <t>EUROPE AND CENTRAL ASIA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF292C33"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>MIDDLE EAST AND NORTH AFRICA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF292C33"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
     <t>NORTH AMERICA</t>
   </si>
   <si>
-    <r>
-      <t>SOUTH ASIA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4A86E8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>SUB-SAHARAN AFRICA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF4A86E8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
     <t>MIDDLE EAST AND NORTH AFRICA</t>
+  </si>
+  <si>
+    <t>EUROPE AND CENTRAL ASIA</t>
+  </si>
+  <si>
+    <t>EAST ASIA AND PACIFIC</t>
+  </si>
+  <si>
+    <t>SOUTH ASIA</t>
+  </si>
+  <si>
+    <t>SUB-SAHARAN AFRICA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -309,18 +262,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF4A86E8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF292C33"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF4A86E8"/>
       <name val="Arial"/>
@@ -666,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8776FE-DF0A-FD4A-87EB-C80C4E2AD0D7}">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -697,7 +638,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -705,7 +646,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -713,7 +654,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -721,7 +662,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -737,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -753,7 +694,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -769,7 +710,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -777,7 +718,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -785,7 +726,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -793,7 +734,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -801,7 +742,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -809,7 +750,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -817,7 +758,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -825,7 +766,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -833,7 +774,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -841,7 +782,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -857,7 +798,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -865,7 +806,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -873,7 +814,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -881,7 +822,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -889,7 +830,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -905,7 +846,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -913,7 +854,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -921,7 +862,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -929,7 +870,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -937,7 +878,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -953,7 +894,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -961,7 +902,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -969,7 +910,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -977,7 +918,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -985,7 +926,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1009,7 +950,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1017,7 +958,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1025,7 +966,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1033,7 +974,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1041,7 +982,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1049,7 +990,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1057,7 +998,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1065,7 +1006,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1073,7 +1014,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1081,7 +1022,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1097,7 +1038,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1113,7 +1054,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1121,7 +1062,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1129,7 +1070,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1137,7 +1078,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1145,7 +1086,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1153,7 +1094,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1161,7 +1102,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -1169,7 +1110,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
